--- a/raw_data/20200818_saline/20200818_Sensor2_Test_28.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_28.xlsx
@@ -1,930 +1,1346 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C046B5E9-C9FE-49B5-99DC-0DC759C33E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>24673.319451</v>
+        <v>24673.319450999999</v>
       </c>
       <c r="B2" s="1">
-        <v>6.853700</v>
+        <v>6.8536999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.480000</v>
+        <v>1244.48</v>
       </c>
       <c r="D2" s="1">
-        <v>-310.379000</v>
+        <v>-310.37900000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>24683.705709</v>
+        <v>24683.705709000002</v>
       </c>
       <c r="G2" s="1">
-        <v>6.856585</v>
+        <v>6.8565849999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1270.380000</v>
+        <v>1270.3800000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-266.610000</v>
+        <v>-266.61</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>24694.149947</v>
+        <v>24694.149947000002</v>
       </c>
       <c r="L2" s="1">
-        <v>6.859486</v>
+        <v>6.8594860000000004</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.240000</v>
+        <v>1305.24</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.353000</v>
+        <v>-203.35300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>24705.012353</v>
+        <v>24705.012352999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.862503</v>
+        <v>6.8625030000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.010000</v>
+        <v>1317.01</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.960000</v>
+        <v>-184.96</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>24715.593969</v>
+        <v>24715.593969000001</v>
       </c>
       <c r="V2" s="1">
         <v>6.865443</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.870000</v>
+        <v>1329.87</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.094000</v>
+        <v>-171.09399999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>24726.308575</v>
+        <v>24726.308574999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.868419</v>
+        <v>6.8684190000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>1346.870000</v>
+        <v>1346.87</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.605000</v>
+        <v>-168.60499999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>24736.831173</v>
+        <v>24736.831172999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.871342</v>
+        <v>6.8713420000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>1359.650000</v>
+        <v>1359.65</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.374000</v>
+        <v>-178.374</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>24747.296263</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.874249</v>
+        <v>6.8742489999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.150000</v>
+        <v>1380.15</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.314000</v>
+        <v>-208.31399999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>24757.848153</v>
+        <v>24757.848152999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.877180</v>
+        <v>6.8771800000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1401.650000</v>
+        <v>1401.65</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.058000</v>
+        <v>-252.05799999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>24768.843284</v>
+        <v>24768.843283999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.880234</v>
+        <v>6.8802339999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.190000</v>
+        <v>1426.19</v>
       </c>
       <c r="AW2" s="1">
-        <v>-311.988000</v>
+        <v>-311.988</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>24780.255948</v>
+        <v>24780.255948000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.883404</v>
+        <v>6.8834039999999996</v>
       </c>
       <c r="BA2" s="1">
-        <v>1445.410000</v>
+        <v>1445.41</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.100000</v>
+        <v>-364.1</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>24791.313261</v>
+        <v>24791.313260999999</v>
       </c>
       <c r="BE2" s="1">
         <v>6.886476</v>
       </c>
       <c r="BF2" s="1">
-        <v>1530.490000</v>
+        <v>1530.49</v>
       </c>
       <c r="BG2" s="1">
-        <v>-612.333000</v>
+        <v>-612.33299999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>24801.945012</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.889429</v>
+        <v>6.8894289999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1684.630000</v>
+        <v>1684.63</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1057.400000</v>
+        <v>-1057.4000000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>24813.078209</v>
+        <v>24813.078208999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.892522</v>
+        <v>6.8925219999999996</v>
       </c>
       <c r="BP2" s="1">
-        <v>1978.550000</v>
+        <v>1978.55</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1828.730000</v>
+        <v>-1828.73</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>24823.438329</v>
+        <v>24823.438329000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.895400</v>
+        <v>6.8954000000000004</v>
       </c>
       <c r="BU2" s="1">
-        <v>2367.110000</v>
+        <v>2367.11</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2717.620000</v>
+        <v>-2717.62</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>24834.195349</v>
+        <v>24834.195349000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.898388</v>
+        <v>6.8983879999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2847.970000</v>
+        <v>2847.97</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3692.560000</v>
+        <v>-3692.56</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>24845.186413</v>
+        <v>24845.186412999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.901441</v>
+        <v>6.9014410000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>4260.530000</v>
+        <v>4260.53</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6047.840000</v>
+        <v>-6047.84</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>24673.700873</v>
+        <v>24673.700873000002</v>
       </c>
       <c r="B3" s="1">
-        <v>6.853806</v>
+        <v>6.8538059999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>1244.210000</v>
+        <v>1244.21</v>
       </c>
       <c r="D3" s="1">
-        <v>-310.533000</v>
+        <v>-310.53300000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>24684.076188</v>
+        <v>24684.076187999999</v>
       </c>
       <c r="G3" s="1">
-        <v>6.856688</v>
+        <v>6.8566880000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1270.440000</v>
+        <v>1270.44</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.252000</v>
+        <v>-266.25200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>24694.533175</v>
       </c>
       <c r="L3" s="1">
-        <v>6.859593</v>
+        <v>6.8595930000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.390000</v>
+        <v>1305.3900000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.557000</v>
+        <v>-203.55699999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>24705.745934</v>
+        <v>24705.745933999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.862707</v>
+        <v>6.8627070000000003</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.970000</v>
+        <v>1316.97</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.903000</v>
+        <v>-184.90299999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>24716.309233</v>
       </c>
       <c r="V3" s="1">
-        <v>6.865641</v>
+        <v>6.8656410000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.880000</v>
+        <v>1329.88</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.163000</v>
+        <v>-171.16300000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>24726.661202</v>
+        <v>24726.661201999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.868517</v>
+        <v>6.8685169999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.860000</v>
+        <v>1346.86</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.752000</v>
+        <v>-168.75200000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>24737.237893</v>
+        <v>24737.237893000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.871455</v>
+        <v>6.8714550000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1359.670000</v>
+        <v>1359.67</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.436000</v>
+        <v>-178.43600000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>24747.654871</v>
+        <v>24747.654870999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.874349</v>
+        <v>6.8743489999999996</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.120000</v>
+        <v>1380.12</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.260000</v>
+        <v>-208.26</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>24758.531673</v>
+        <v>24758.531673000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.877370</v>
+        <v>6.87737</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1401.730000</v>
+        <v>1401.73</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.079000</v>
+        <v>-252.07900000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>24769.527450</v>
+        <v>24769.527450000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.880424</v>
+        <v>6.8804239999999997</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.140000</v>
+        <v>1426.14</v>
       </c>
       <c r="AW3" s="1">
-        <v>-311.952000</v>
+        <v>-311.952</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>24780.673547</v>
+        <v>24780.673546999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.883520</v>
+        <v>6.8835199999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1445.430000</v>
+        <v>1445.43</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.075000</v>
+        <v>-364.07499999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>24791.657948</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.886572</v>
+        <v>6.8865720000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1530.500000</v>
+        <v>1530.5</v>
       </c>
       <c r="BG3" s="1">
-        <v>-612.296000</v>
+        <v>-612.29600000000005</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>24802.321440</v>
+        <v>24802.32144</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.889534</v>
+        <v>6.8895340000000003</v>
       </c>
       <c r="BK3" s="1">
-        <v>1684.500000</v>
+        <v>1684.5</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1057.430000</v>
+        <v>-1057.43</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>24813.501761</v>
@@ -933,28 +1349,28 @@
         <v>6.892639</v>
       </c>
       <c r="BP3" s="1">
-        <v>1978.400000</v>
+        <v>1978.4</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1828.720000</v>
+        <v>-1828.72</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>24823.931139</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.895536</v>
+        <v>6.8955359999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2366.880000</v>
+        <v>2366.88</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2718.430000</v>
+        <v>-2718.43</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>24834.662084</v>
@@ -963,497 +1379,497 @@
         <v>6.898517</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2847.760000</v>
+        <v>2847.76</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3693.210000</v>
+        <v>-3693.21</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>24845.748676</v>
+        <v>24845.748675999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.901597</v>
+        <v>6.9015969999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>4274.530000</v>
+        <v>4274.53</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6037.980000</v>
+        <v>-6037.98</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>24674.043112</v>
+        <v>24674.043111999999</v>
       </c>
       <c r="B4" s="1">
-        <v>6.853901</v>
+        <v>6.8539009999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>1244.430000</v>
+        <v>1244.43</v>
       </c>
       <c r="D4" s="1">
-        <v>-310.169000</v>
+        <v>-310.16899999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>24684.766154</v>
+        <v>24684.766154000001</v>
       </c>
       <c r="G4" s="1">
-        <v>6.856879</v>
+        <v>6.8568790000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.170000</v>
+        <v>1269.17</v>
       </c>
       <c r="I4" s="1">
-        <v>-267.215000</v>
+        <v>-267.21499999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>24695.223773</v>
+        <v>24695.223773000002</v>
       </c>
       <c r="L4" s="1">
-        <v>6.859784</v>
+        <v>6.8597840000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.070000</v>
+        <v>1305.07</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.431000</v>
+        <v>-203.43100000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>24706.092110</v>
+        <v>24706.092110000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.862803</v>
+        <v>6.8628030000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.829000</v>
+        <v>-184.82900000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>24716.652463</v>
+        <v>24716.652462999999</v>
       </c>
       <c r="V4" s="1">
-        <v>6.865737</v>
+        <v>6.8657370000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1329.850000</v>
+        <v>1329.85</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.079000</v>
+        <v>-171.07900000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>24727.007411</v>
+        <v>24727.007410999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.868613</v>
+        <v>6.8686129999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.070000</v>
+        <v>1347.07</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.762000</v>
+        <v>-168.762</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>24737.892613</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.871637</v>
+        <v>6.8716369999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1359.710000</v>
+        <v>1359.71</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.382000</v>
+        <v>-178.38200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>24748.310086</v>
+        <v>24748.310086000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.874531</v>
+        <v>6.8745310000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.150000</v>
+        <v>1380.15</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.282000</v>
+        <v>-208.28200000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>24758.954728</v>
+        <v>24758.954728000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.877487</v>
+        <v>6.8774870000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1401.690000</v>
+        <v>1401.69</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.115000</v>
+        <v>-252.11500000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>24769.949087</v>
+        <v>24769.949087000001</v>
       </c>
       <c r="AU4" s="1">
         <v>6.880541</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.170000</v>
+        <v>1426.17</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.018000</v>
+        <v>-312.01799999999997</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>24781.031163</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.883620</v>
+        <v>6.8836199999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1445.420000</v>
+        <v>1445.42</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.062000</v>
+        <v>-364.06200000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>24792.018076</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.886672</v>
+        <v>6.8866719999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG4" s="1">
-        <v>-612.285000</v>
+        <v>-612.28499999999997</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>24802.722206</v>
+        <v>24802.722205999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.889645</v>
+        <v>6.8896449999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1684.450000</v>
+        <v>1684.45</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1057.460000</v>
+        <v>-1057.46</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>24813.914431</v>
+        <v>24813.914431000001</v>
       </c>
       <c r="BO4" s="1">
         <v>6.892754</v>
       </c>
       <c r="BP4" s="1">
-        <v>1978.130000</v>
+        <v>1978.13</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1828.820000</v>
+        <v>-1828.82</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>24824.350257</v>
+        <v>24824.350256999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.895653</v>
+        <v>6.8956530000000003</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.960000</v>
+        <v>2366.96</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2718.190000</v>
+        <v>-2718.19</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>24835.109476</v>
+        <v>24835.109476000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.898642</v>
+        <v>6.8986419999999997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2847.840000</v>
+        <v>2847.84</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3692.500000</v>
+        <v>-3692.5</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>24846.287812</v>
+        <v>24846.287811999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.901747</v>
+        <v>6.9017470000000003</v>
       </c>
       <c r="CE4" s="1">
-        <v>4255.940000</v>
+        <v>4255.9399999999996</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6032.410000</v>
+        <v>-6032.41</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>24674.725111</v>
       </c>
       <c r="B5" s="1">
-        <v>6.854090</v>
+        <v>6.8540900000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1244.390000</v>
+        <v>1244.3900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-310.471000</v>
+        <v>-310.471</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>24685.108890</v>
+        <v>24685.10889</v>
       </c>
       <c r="G5" s="1">
-        <v>6.856975</v>
+        <v>6.8569750000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>1270.240000</v>
+        <v>1270.24</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.613000</v>
+        <v>-266.613</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>24695.568988</v>
+        <v>24695.568987999999</v>
       </c>
       <c r="L5" s="1">
-        <v>6.859880</v>
+        <v>6.8598800000000004</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.560000</v>
+        <v>1305.56</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.384000</v>
+        <v>-203.38399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>24706.441822</v>
+        <v>24706.441822000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.862901</v>
+        <v>6.8629009999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.010000</v>
+        <v>1317.01</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.818000</v>
+        <v>-184.81800000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>24716.993679</v>
+        <v>24716.993678999999</v>
       </c>
       <c r="V5" s="1">
-        <v>6.865832</v>
+        <v>6.8658320000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.950000</v>
+        <v>1329.95</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.203000</v>
+        <v>-171.203</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>24727.664164</v>
+        <v>24727.664164000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.868796</v>
+        <v>6.8687959999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.740000</v>
+        <v>1346.74</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.837000</v>
+        <v>-168.83699999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>24738.268610</v>
+        <v>24738.268609999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.871741</v>
+        <v>6.8717410000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1359.730000</v>
+        <v>1359.73</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.329000</v>
+        <v>-178.32900000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>24748.701927</v>
+        <v>24748.701926999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.874639</v>
+        <v>6.8746390000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.130000</v>
+        <v>1380.13</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.288000</v>
+        <v>-208.28800000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>24759.331223</v>
+        <v>24759.331223000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.877592</v>
+        <v>6.8775919999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1401.720000</v>
+        <v>1401.72</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.047000</v>
+        <v>-252.047</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>24770.331963</v>
+        <v>24770.331963000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.880648</v>
+        <v>6.8806479999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.140000</v>
+        <v>1426.14</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.037000</v>
+        <v>-312.03699999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>24781.390266</v>
+        <v>24781.390265999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.883720</v>
+        <v>6.8837200000000003</v>
       </c>
       <c r="BA5" s="1">
-        <v>1445.450000</v>
+        <v>1445.45</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.096000</v>
+        <v>-364.096</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>24792.436681</v>
+        <v>24792.436680999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.886788</v>
+        <v>6.8867880000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1530.390000</v>
+        <v>1530.39</v>
       </c>
       <c r="BG5" s="1">
-        <v>-612.352000</v>
+        <v>-612.35199999999998</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>24803.138350</v>
+        <v>24803.138350000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>6.889761</v>
       </c>
       <c r="BK5" s="1">
-        <v>1684.500000</v>
+        <v>1684.5</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1057.410000</v>
+        <v>-1057.4100000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>24814.320160</v>
+        <v>24814.320159999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.892867</v>
+        <v>6.8928669999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1978.220000</v>
+        <v>1978.22</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1828.870000</v>
+        <v>-1828.87</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>24824.778305</v>
@@ -1462,2825 +1878,2825 @@
         <v>6.895772</v>
       </c>
       <c r="BU5" s="1">
-        <v>2367.140000</v>
+        <v>2367.14</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2718.540000</v>
+        <v>-2718.54</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>24835.540039</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.898761</v>
+        <v>6.8987610000000004</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2847.770000</v>
+        <v>2847.77</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3693.210000</v>
+        <v>-3693.21</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>24846.828485</v>
+        <v>24846.828484999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.901897</v>
+        <v>6.9018969999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4273.960000</v>
+        <v>4273.96</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6048.660000</v>
+        <v>-6048.66</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>24675.068129</v>
+        <v>24675.068128999999</v>
       </c>
       <c r="B6" s="1">
-        <v>6.854186</v>
+        <v>6.8541860000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>1244.510000</v>
+        <v>1244.51</v>
       </c>
       <c r="D6" s="1">
-        <v>-310.393000</v>
+        <v>-310.39299999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>24685.458043</v>
+        <v>24685.458042999999</v>
       </c>
       <c r="G6" s="1">
-        <v>6.857072</v>
+        <v>6.8570719999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.290000</v>
+        <v>1270.29</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.369000</v>
+        <v>-266.36900000000003</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>24695.915692</v>
+        <v>24695.915691999999</v>
       </c>
       <c r="L6" s="1">
-        <v>6.859977</v>
+        <v>6.8599769999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.170000</v>
+        <v>1305.17</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.473000</v>
+        <v>-203.47300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>24707.099518</v>
+        <v>24707.099517999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.863083</v>
+        <v>6.8630829999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.080000</v>
+        <v>1317.08</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.965000</v>
+        <v>-184.965</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>24717.649428</v>
+        <v>24717.649428000001</v>
       </c>
       <c r="V6" s="1">
-        <v>6.866014</v>
+        <v>6.8660139999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>1329.740000</v>
+        <v>1329.74</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.161000</v>
+        <v>-171.161</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>24728.054993</v>
+        <v>24728.054993000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.868904</v>
+        <v>6.8689039999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>1346.870000</v>
+        <v>1346.87</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.633000</v>
+        <v>-168.63300000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>24738.613300</v>
+        <v>24738.613300000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.871837</v>
+        <v>6.8718370000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1359.710000</v>
+        <v>1359.71</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.391000</v>
+        <v>-178.39099999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>24749.049158</v>
+        <v>24749.049158000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.874736</v>
+        <v>6.8747360000000004</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.110000</v>
+        <v>1380.11</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.271000</v>
+        <v>-208.27099999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>24759.691783</v>
+        <v>24759.691782999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.877692</v>
+        <v>6.8776919999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1401.730000</v>
+        <v>1401.73</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.073000</v>
+        <v>-252.07300000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>24770.707432</v>
+        <v>24770.707431999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.880752</v>
+        <v>6.8807520000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.150000</v>
+        <v>1426.15</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.015000</v>
+        <v>-312.01499999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>24781.804922</v>
+        <v>24781.804921999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.883835</v>
+        <v>6.8838350000000004</v>
       </c>
       <c r="BA6" s="1">
-        <v>1445.440000</v>
+        <v>1445.44</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.115000</v>
+        <v>-364.11500000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>24792.740219</v>
+        <v>24792.740218999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.886872</v>
+        <v>6.8868720000000003</v>
       </c>
       <c r="BF6" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG6" s="1">
-        <v>-612.349000</v>
+        <v>-612.34900000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>24803.472653</v>
+        <v>24803.472653000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.889854</v>
+        <v>6.8898539999999997</v>
       </c>
       <c r="BK6" s="1">
-        <v>1684.420000</v>
+        <v>1684.42</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1057.450000</v>
+        <v>-1057.45</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>24814.715977</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.892977</v>
+        <v>6.8929770000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1978.180000</v>
+        <v>1978.18</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1828.890000</v>
+        <v>-1828.89</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>24825.210329</v>
+        <v>24825.210329000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.895892</v>
+        <v>6.8958919999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2366.940000</v>
+        <v>2366.94</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2718.840000</v>
+        <v>-2718.84</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>24835.960610</v>
+        <v>24835.960609999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.898878</v>
+        <v>6.8988779999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2848.110000</v>
+        <v>2848.11</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3692.390000</v>
+        <v>-3692.39</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>24847.368132</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.902047</v>
+        <v>6.9020469999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>4266.690000</v>
+        <v>4266.6899999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6028.390000</v>
+        <v>-6028.39</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>24675.409590</v>
+        <v>24675.409589999999</v>
       </c>
       <c r="B7" s="1">
-        <v>6.854280</v>
+        <v>6.8542800000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1244.700000</v>
+        <v>1244.7</v>
       </c>
       <c r="D7" s="1">
-        <v>-310.580000</v>
+        <v>-310.58</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>24686.103368</v>
       </c>
       <c r="G7" s="1">
-        <v>6.857251</v>
+        <v>6.8572509999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1270.370000</v>
+        <v>1270.3699999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-266.765000</v>
+        <v>-266.76499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>24696.569455</v>
+        <v>24696.569455000001</v>
       </c>
       <c r="L7" s="1">
-        <v>6.860158</v>
+        <v>6.8601580000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.290000</v>
+        <v>1305.29</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.270000</v>
+        <v>-203.27</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>24707.488844</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.863191</v>
+        <v>6.8631909999999996</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.960000</v>
+        <v>1316.96</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.920000</v>
+        <v>-184.92</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>24718.024863</v>
+        <v>24718.024862999999</v>
       </c>
       <c r="V7" s="1">
-        <v>6.866118</v>
+        <v>6.8661180000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.990000</v>
+        <v>1329.99</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.066000</v>
+        <v>-171.066</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>24728.403681</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.869001</v>
+        <v>6.8690009999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.940000</v>
+        <v>1346.94</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.683000</v>
+        <v>-168.68299999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>24738.957026</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.871933</v>
+        <v>6.8719330000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>1359.710000</v>
+        <v>1359.71</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.580000</v>
+        <v>-178.58</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>24749.397849</v>
+        <v>24749.397849000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.874833</v>
+        <v>6.8748329999999997</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.150000</v>
+        <v>1380.15</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.285000</v>
+        <v>-208.285</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>24760.107926</v>
+        <v>24760.107926000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.877808</v>
+        <v>6.8778079999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1401.700000</v>
+        <v>1401.7</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.065000</v>
+        <v>-252.065</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>24771.137465</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.880872</v>
+        <v>6.8808720000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.150000</v>
+        <v>1426.15</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.019000</v>
+        <v>-312.01900000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>24782.108588</v>
+        <v>24782.108587999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.883919</v>
+        <v>6.8839189999999997</v>
       </c>
       <c r="BA7" s="1">
-        <v>1445.410000</v>
+        <v>1445.41</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.050000</v>
+        <v>-364.05</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>24793.100315</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.886972</v>
+        <v>6.8869720000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1530.450000</v>
+        <v>1530.45</v>
       </c>
       <c r="BG7" s="1">
-        <v>-612.304000</v>
+        <v>-612.30399999999997</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>24803.846668</v>
+        <v>24803.846667999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.889957</v>
+        <v>6.8899569999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1684.500000</v>
+        <v>1684.5</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1057.460000</v>
+        <v>-1057.46</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>24815.139582</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.893094</v>
+        <v>6.8930939999999996</v>
       </c>
       <c r="BP7" s="1">
-        <v>1978.170000</v>
+        <v>1978.17</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1828.790000</v>
+        <v>-1828.79</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>24825.614064</v>
+        <v>24825.614064000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.896004</v>
+        <v>6.8960039999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>2366.910000</v>
+        <v>2366.91</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2718.960000</v>
+        <v>-2718.96</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>24836.381217</v>
+        <v>24836.381216999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.898995</v>
+        <v>6.8989950000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2847.600000</v>
+        <v>2847.6</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3693.060000</v>
+        <v>-3693.06</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>24847.907779</v>
+        <v>24847.907779000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.902197</v>
+        <v>6.9021970000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4258.200000</v>
+        <v>4258.2</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6047.190000</v>
+        <v>-6047.19</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>24676.069766</v>
+        <v>24676.069766000001</v>
       </c>
       <c r="B8" s="1">
-        <v>6.854464</v>
+        <v>6.8544640000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="D8" s="1">
-        <v>-310.572000</v>
+        <v>-310.572</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>24686.490218</v>
+        <v>24686.490217999999</v>
       </c>
       <c r="G8" s="1">
-        <v>6.857358</v>
+        <v>6.8573579999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.700000</v>
+        <v>1269.7</v>
       </c>
       <c r="I8" s="1">
-        <v>-266.409000</v>
+        <v>-266.40899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>24696.950347</v>
+        <v>24696.950347000002</v>
       </c>
       <c r="L8" s="1">
-        <v>6.860264</v>
+        <v>6.8602639999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.290000</v>
+        <v>1305.29</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.273000</v>
+        <v>-203.273</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>24707.835547</v>
+        <v>24707.835546999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.863288</v>
+        <v>6.8632879999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.950000</v>
+        <v>1316.95</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.934000</v>
+        <v>-184.934</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>24718.367632</v>
+        <v>24718.367632000001</v>
       </c>
       <c r="V8" s="1">
-        <v>6.866213</v>
+        <v>6.8662130000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.010000</v>
+        <v>1330.01</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.211000</v>
+        <v>-171.21100000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>24728.752337</v>
+        <v>24728.752337000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.869098</v>
+        <v>6.8690980000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.050000</v>
+        <v>1347.05</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.785000</v>
+        <v>-168.785</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>24739.366226</v>
+        <v>24739.366225999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.872046</v>
+        <v>6.8720460000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1359.690000</v>
+        <v>1359.69</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.389000</v>
+        <v>-178.38900000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>24749.820437</v>
+        <v>24749.820436999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.874950</v>
+        <v>6.8749500000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.140000</v>
+        <v>1380.14</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.299000</v>
+        <v>-208.29900000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>24760.413463</v>
+        <v>24760.413463000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.877893</v>
+        <v>6.8778930000000003</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1401.710000</v>
+        <v>1401.71</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.082000</v>
+        <v>-252.08199999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>24771.431127</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.880953</v>
+        <v>6.8809529999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.160000</v>
+        <v>1426.16</v>
       </c>
       <c r="AW8" s="1">
-        <v>-311.984000</v>
+        <v>-311.98399999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>24782.466089</v>
+        <v>24782.466089000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.884018</v>
+        <v>6.8840180000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1445.420000</v>
+        <v>1445.42</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.064000</v>
+        <v>-364.06400000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>24793.461402</v>
+        <v>24793.461402000001</v>
       </c>
       <c r="BE8" s="1">
         <v>6.887073</v>
       </c>
       <c r="BF8" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG8" s="1">
-        <v>-612.243000</v>
+        <v>-612.24300000000005</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>24804.225084</v>
+        <v>24804.225084000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.890063</v>
+        <v>6.8900629999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1684.450000</v>
+        <v>1684.45</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1057.380000</v>
+        <v>-1057.3800000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>24815.556685</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.893210</v>
+        <v>6.8932099999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.160000</v>
+        <v>1978.16</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1828.940000</v>
+        <v>-1828.94</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>24826.052527</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.896126</v>
+        <v>6.8961259999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>2367.320000</v>
+        <v>2367.3200000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2719.090000</v>
+        <v>-2719.09</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>24836.837041</v>
+        <v>24836.837040999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.899121</v>
+        <v>6.8991210000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2847.500000</v>
+        <v>2847.5</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3692.600000</v>
+        <v>-3692.6</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>24848.446402</v>
+        <v>24848.446402000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.902346</v>
+        <v>6.9023459999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>4273.990000</v>
+        <v>4273.99</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6038.820000</v>
+        <v>-6038.82</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>24676.433839</v>
+        <v>24676.433839000001</v>
       </c>
       <c r="B9" s="1">
         <v>6.854565</v>
       </c>
       <c r="C9" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-310.168000</v>
+        <v>-310.16800000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>24686.835469</v>
+        <v>24686.835469000001</v>
       </c>
       <c r="G9" s="1">
-        <v>6.857454</v>
+        <v>6.8574539999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1270.150000</v>
+        <v>1270.1500000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.332000</v>
+        <v>-266.33199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>24697.288618</v>
+        <v>24697.288617999999</v>
       </c>
       <c r="L9" s="1">
-        <v>6.860358</v>
+        <v>6.8603579999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.400000</v>
+        <v>1305.4000000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.905000</v>
+        <v>-202.905</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>24708.184731</v>
+        <v>24708.184731000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.863385</v>
+        <v>6.8633850000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.010000</v>
+        <v>1317.01</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.840000</v>
+        <v>-184.84</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>24718.710370</v>
+        <v>24718.710370000001</v>
       </c>
       <c r="V9" s="1">
-        <v>6.866308</v>
+        <v>6.8663080000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1329.940000</v>
+        <v>1329.94</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.088000</v>
+        <v>-171.08799999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>24729.173968</v>
+        <v>24729.173967999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.869215</v>
+        <v>6.8692149999999996</v>
       </c>
       <c r="AB9" s="1">
-        <v>1346.920000</v>
+        <v>1346.92</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.863000</v>
+        <v>-168.863</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>24739.647986</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.872124</v>
+        <v>6.8721240000000003</v>
       </c>
       <c r="AG9" s="1">
-        <v>1359.710000</v>
+        <v>1359.71</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.256000</v>
+        <v>-178.256</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>24750.101635</v>
+        <v>24750.101634999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.875028</v>
+        <v>6.8750280000000004</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.140000</v>
+        <v>1380.14</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.310000</v>
+        <v>-208.31</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>24760.772565</v>
+        <v>24760.772564999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.877992</v>
+        <v>6.8779919999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1401.650000</v>
+        <v>1401.65</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.070000</v>
+        <v>-252.07</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>24771.800120</v>
+        <v>24771.80012</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.881056</v>
+        <v>6.8810560000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.180000</v>
+        <v>1426.18</v>
       </c>
       <c r="AW9" s="1">
-        <v>-311.984000</v>
+        <v>-311.98399999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>24782.826184</v>
+        <v>24782.826184000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>6.884118</v>
       </c>
       <c r="BA9" s="1">
-        <v>1445.440000</v>
+        <v>1445.44</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.068000</v>
+        <v>-364.06799999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>24794.181130</v>
+        <v>24794.181130000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.887273</v>
+        <v>6.8872730000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG9" s="1">
-        <v>-612.274000</v>
+        <v>-612.274</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>24804.997852</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.890277</v>
+        <v>6.8902770000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1684.470000</v>
+        <v>1684.47</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1057.390000</v>
+        <v>-1057.3900000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>24815.959436</v>
+        <v>24815.959436000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.893322</v>
+        <v>6.8933220000000004</v>
       </c>
       <c r="BP9" s="1">
-        <v>1978.250000</v>
+        <v>1978.25</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1828.930000</v>
+        <v>-1828.93</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>24826.478590</v>
+        <v>24826.478589999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.896244</v>
+        <v>6.8962440000000003</v>
       </c>
       <c r="BU9" s="1">
-        <v>2367.320000</v>
+        <v>2367.3200000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2719.230000</v>
+        <v>-2719.23</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>24837.255168</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.899238</v>
+        <v>6.8992380000000004</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2847.440000</v>
+        <v>2847.44</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3691.940000</v>
+        <v>-3691.94</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>24849.303523</v>
+        <v>24849.303522999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.902584</v>
+        <v>6.9025840000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4260.720000</v>
+        <v>4260.72</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6046.930000</v>
+        <v>-6046.93</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>24676.772641</v>
       </c>
       <c r="B10" s="1">
-        <v>6.854659</v>
+        <v>6.8546589999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1244.770000</v>
+        <v>1244.77</v>
       </c>
       <c r="D10" s="1">
-        <v>-310.217000</v>
+        <v>-310.21699999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>24687.178167</v>
+        <v>24687.178166999998</v>
       </c>
       <c r="G10" s="1">
-        <v>6.857549</v>
+        <v>6.8575489999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>1270.980000</v>
+        <v>1270.98</v>
       </c>
       <c r="I10" s="1">
-        <v>-266.669000</v>
+        <v>-266.66899999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>24697.643258</v>
       </c>
       <c r="L10" s="1">
-        <v>6.860456</v>
+        <v>6.8604560000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.360000</v>
+        <v>1305.3599999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.434000</v>
+        <v>-203.434</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>24708.595914</v>
+        <v>24708.595914000001</v>
       </c>
       <c r="Q10" s="1">
         <v>6.863499</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.010000</v>
+        <v>1317.01</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.819000</v>
+        <v>-184.81899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>24719.127965</v>
       </c>
       <c r="V10" s="1">
-        <v>6.866424</v>
+        <v>6.8664240000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>1329.910000</v>
+        <v>1329.91</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.073000</v>
+        <v>-171.07300000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>24729.465119</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.869296</v>
+        <v>6.8692960000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>1346.890000</v>
+        <v>1346.89</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.855000</v>
+        <v>-168.85499999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>24739.989729</v>
+        <v>24739.989729000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.872219</v>
+        <v>6.8722190000000003</v>
       </c>
       <c r="AG10" s="1">
-        <v>1359.690000</v>
+        <v>1359.69</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.472000</v>
+        <v>-178.47200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>24750.445401</v>
+        <v>24750.445401000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.875124</v>
+        <v>6.8751239999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.100000</v>
+        <v>1380.1</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.290000</v>
+        <v>-208.29</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>24761.132165</v>
+        <v>24761.132164999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.878092</v>
+        <v>6.8780919999999997</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1401.680000</v>
+        <v>1401.68</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.117000</v>
+        <v>-252.11699999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>24772.162236</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.881156</v>
+        <v>6.8811559999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.017000</v>
+        <v>-312.017</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>24783.543908</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.884318</v>
+        <v>6.8843180000000004</v>
       </c>
       <c r="BA10" s="1">
-        <v>1445.430000</v>
+        <v>1445.43</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.050000</v>
+        <v>-364.05</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>24794.545658</v>
+        <v>24794.545657999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.887374</v>
+        <v>6.8873740000000003</v>
       </c>
       <c r="BF10" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG10" s="1">
-        <v>-612.297000</v>
+        <v>-612.29700000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>24805.373822</v>
+        <v>24805.373822000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.890382</v>
+        <v>6.8903819999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1684.410000</v>
+        <v>1684.41</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1057.410000</v>
+        <v>-1057.4100000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>24816.357228</v>
+        <v>24816.357228000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.893433</v>
+        <v>6.8934329999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1978.040000</v>
+        <v>1978.04</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1828.890000</v>
+        <v>-1828.89</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>24826.896259</v>
+        <v>24826.896259000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.896360</v>
+        <v>6.8963599999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>2367.380000</v>
+        <v>2367.38</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2719.710000</v>
+        <v>-2719.71</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>24838.011569</v>
+        <v>24838.011568999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.899448</v>
+        <v>6.8994479999999996</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2846.910000</v>
+        <v>2846.91</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3692.290000</v>
+        <v>-3692.29</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>24849.529168</v>
+        <v>24849.529168000001</v>
       </c>
       <c r="CD10" s="1">
         <v>6.902647</v>
       </c>
       <c r="CE10" s="1">
-        <v>4259.060000</v>
+        <v>4259.0600000000004</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6047.970000</v>
+        <v>-6047.97</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>24677.116324</v>
+        <v>24677.116323999999</v>
       </c>
       <c r="B11" s="1">
-        <v>6.854755</v>
+        <v>6.8547549999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1244.180000</v>
+        <v>1244.18</v>
       </c>
       <c r="D11" s="1">
-        <v>-310.303000</v>
+        <v>-310.303</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>24687.600410</v>
+        <v>24687.600409999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6.857667</v>
+        <v>6.8576670000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1270.820000</v>
+        <v>1270.82</v>
       </c>
       <c r="I11" s="1">
-        <v>-266.627000</v>
+        <v>-266.62700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>24698.074811</v>
+        <v>24698.074810999999</v>
       </c>
       <c r="L11" s="1">
         <v>6.860576</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.250000</v>
+        <v>1305.25</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.284000</v>
+        <v>-203.28399999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>24708.888554</v>
+        <v>24708.888554000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.863580</v>
+        <v>6.8635799999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.060000</v>
+        <v>1317.06</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.870000</v>
+        <v>-184.87</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>24719.398284</v>
+        <v>24719.398283999999</v>
       </c>
       <c r="V11" s="1">
-        <v>6.866500</v>
+        <v>6.8665000000000003</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.820000</v>
+        <v>1329.82</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.159000</v>
+        <v>-171.15899999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>24729.815297</v>
+        <v>24729.815297000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.869393</v>
+        <v>6.8693929999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>1346.910000</v>
+        <v>1346.91</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.937000</v>
+        <v>-168.93700000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>24740.334944</v>
+        <v>24740.334943999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.872315</v>
+        <v>6.8723150000000004</v>
       </c>
       <c r="AG11" s="1">
-        <v>1359.640000</v>
+        <v>1359.64</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.349000</v>
+        <v>-178.34899999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>24750.797523</v>
+        <v>24750.797523000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.875222</v>
+        <v>6.8752219999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.100000</v>
+        <v>1380.1</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.268000</v>
+        <v>-208.268</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>24761.860354</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.878295</v>
+        <v>6.8782949999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1401.720000</v>
+        <v>1401.72</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.092000</v>
+        <v>-252.09200000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>24772.891813</v>
+        <v>24772.891812999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.881359</v>
+        <v>6.8813589999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.180000</v>
+        <v>1426.18</v>
       </c>
       <c r="AW11" s="1">
-        <v>-311.978000</v>
+        <v>-311.97800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>24783.899529</v>
+        <v>24783.899528999998</v>
       </c>
       <c r="AZ11" s="1">
         <v>6.884417</v>
       </c>
       <c r="BA11" s="1">
-        <v>1445.430000</v>
+        <v>1445.43</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.110000</v>
+        <v>-364.11</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>24794.906745</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.887474</v>
+        <v>6.8874740000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1530.450000</v>
+        <v>1530.45</v>
       </c>
       <c r="BG11" s="1">
-        <v>-612.304000</v>
+        <v>-612.30399999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>24805.748329</v>
+        <v>24805.748328999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.890486</v>
+        <v>6.8904860000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1684.440000</v>
+        <v>1684.44</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1057.470000</v>
+        <v>-1057.47</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>24817.085851</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.893635</v>
+        <v>6.8936349999999997</v>
       </c>
       <c r="BP11" s="1">
-        <v>1978.280000</v>
+        <v>1978.28</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1828.790000</v>
+        <v>-1828.79</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>24827.419005</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.896505</v>
+        <v>6.8965050000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>2366.880000</v>
+        <v>2366.88</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2719.850000</v>
+        <v>-2719.85</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>24838.148959</v>
+        <v>24838.148958999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.899486</v>
+        <v>6.8994859999999996</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2847.210000</v>
+        <v>2847.21</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3692.590000</v>
+        <v>-3692.59</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>24850.047489</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.902791</v>
+        <v>6.9027909999999997</v>
       </c>
       <c r="CE11" s="1">
-        <v>4275.580000</v>
+        <v>4275.58</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6042.150000</v>
+        <v>-6042.15</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>24677.538451</v>
       </c>
       <c r="B12" s="1">
-        <v>6.854872</v>
+        <v>6.8548720000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>1244.200000</v>
+        <v>1244.2</v>
       </c>
       <c r="D12" s="1">
-        <v>-310.460000</v>
+        <v>-310.45999999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>24687.874054</v>
       </c>
       <c r="G12" s="1">
-        <v>6.857743</v>
+        <v>6.8577430000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1271.350000</v>
+        <v>1271.3499999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-266.695000</v>
+        <v>-266.69499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>24698.357001</v>
       </c>
       <c r="L12" s="1">
-        <v>6.860655</v>
+        <v>6.8606550000000004</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.280000</v>
+        <v>1305.28</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.277000</v>
+        <v>-203.27699999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>24709.235290</v>
+        <v>24709.235290000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.863676</v>
+        <v>6.8636759999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.060000</v>
+        <v>1317.06</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.893000</v>
+        <v>-184.893</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>24719.741516</v>
+        <v>24719.741515999998</v>
       </c>
       <c r="V12" s="1">
-        <v>6.866595</v>
+        <v>6.8665950000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1329.850000</v>
+        <v>1329.85</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.056000</v>
+        <v>-171.05600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>24730.159982</v>
+        <v>24730.159982000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.869489</v>
+        <v>6.8694889999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.960000</v>
+        <v>1346.96</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.715000</v>
+        <v>-168.715</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>24741.021376</v>
+        <v>24741.021376000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.872506</v>
+        <v>6.8725059999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>1359.610000</v>
+        <v>1359.61</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.431000</v>
+        <v>-178.43100000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>24751.492452</v>
+        <v>24751.492451999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.875415</v>
+        <v>6.8754150000000003</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.090000</v>
+        <v>1380.09</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.252000</v>
+        <v>-208.25200000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>24762.238741</v>
+        <v>24762.238741000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.878400</v>
+        <v>6.8784000000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1401.710000</v>
+        <v>1401.71</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.067000</v>
+        <v>-252.06700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>24773.255381</v>
+        <v>24773.255380999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.881460</v>
+        <v>6.8814599999999997</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.160000</v>
+        <v>1426.16</v>
       </c>
       <c r="AW12" s="1">
-        <v>-311.969000</v>
+        <v>-311.96899999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>24784.258328</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.884516</v>
+        <v>6.8845159999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>1445.410000</v>
+        <v>1445.41</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.074000</v>
+        <v>-364.07400000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>24795.577865</v>
+        <v>24795.577864999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.887661</v>
+        <v>6.8876609999999996</v>
       </c>
       <c r="BF12" s="1">
-        <v>1530.460000</v>
+        <v>1530.46</v>
       </c>
       <c r="BG12" s="1">
-        <v>-612.258000</v>
+        <v>-612.25800000000004</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>24806.456406</v>
+        <v>24806.456406000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>6.890682</v>
       </c>
       <c r="BK12" s="1">
-        <v>1684.410000</v>
+        <v>1684.41</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1057.400000</v>
+        <v>-1057.4000000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>24817.199958</v>
+        <v>24817.199958000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.893667</v>
+        <v>6.8936669999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1978.180000</v>
+        <v>1978.18</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1828.750000</v>
+        <v>-1828.75</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>24827.751325</v>
+        <v>24827.751325000001</v>
       </c>
       <c r="BT12" s="1">
         <v>6.896598</v>
       </c>
       <c r="BU12" s="1">
-        <v>2367.120000</v>
+        <v>2367.12</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2720.130000</v>
+        <v>-2720.13</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>24838.576015</v>
+        <v>24838.576014999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.899604</v>
+        <v>6.8996040000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2847.410000</v>
+        <v>2847.41</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3692.020000</v>
+        <v>-3692.02</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>24850.565311</v>
+        <v>24850.565310999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.902935</v>
+        <v>6.9029350000000003</v>
       </c>
       <c r="CE12" s="1">
-        <v>4273.900000</v>
+        <v>4273.8999999999996</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6047.330000</v>
+        <v>-6047.33</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>24677.814195</v>
+        <v>24677.814194999999</v>
       </c>
       <c r="B13" s="1">
-        <v>6.854948</v>
+        <v>6.8549480000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>1244.410000</v>
+        <v>1244.4100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-309.904000</v>
+        <v>-309.904</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>24688.217782</v>
       </c>
       <c r="G13" s="1">
-        <v>6.857838</v>
+        <v>6.8578380000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1270.360000</v>
+        <v>1270.3599999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-267.050000</v>
+        <v>-267.05</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>24698.701256</v>
       </c>
       <c r="L13" s="1">
-        <v>6.860750</v>
+        <v>6.8607500000000003</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.470000</v>
+        <v>1305.47</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.478000</v>
+        <v>-203.47800000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>24709.586457</v>
+        <v>24709.586457000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.863774</v>
+        <v>6.8637740000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.950000</v>
+        <v>1316.95</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.930000</v>
+        <v>-184.93</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>24720.428971</v>
+        <v>24720.428971000001</v>
       </c>
       <c r="V13" s="1">
-        <v>6.866786</v>
+        <v>6.8667860000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>1329.890000</v>
+        <v>1329.89</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.101000</v>
+        <v>-171.101</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>24730.859368</v>
+        <v>24730.859368000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.869683</v>
+        <v>6.8696830000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.000000</v>
+        <v>1347</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.915000</v>
+        <v>-168.91499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>24741.365103</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.872601</v>
+        <v>6.8726010000000004</v>
       </c>
       <c r="AG13" s="1">
-        <v>1359.650000</v>
+        <v>1359.65</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.365000</v>
+        <v>-178.36500000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>24751.843604</v>
+        <v>24751.843604000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.875512</v>
+        <v>6.8755119999999996</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.140000</v>
+        <v>1380.14</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.289000</v>
+        <v>-208.28899999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>24762.596852</v>
+        <v>24762.596851999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.878499</v>
+        <v>6.8784989999999997</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1401.710000</v>
+        <v>1401.71</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.044000</v>
+        <v>-252.04400000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>24773.940389</v>
+        <v>24773.940388999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.881650</v>
+        <v>6.8816499999999996</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.160000</v>
+        <v>1426.16</v>
       </c>
       <c r="AW13" s="1">
-        <v>-311.994000</v>
+        <v>-311.99400000000003</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>24784.929718</v>
+        <v>24784.929717999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>6.884703</v>
       </c>
       <c r="BA13" s="1">
-        <v>1445.440000</v>
+        <v>1445.44</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.059000</v>
+        <v>-364.05900000000003</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>24796.015303</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.887782</v>
+        <v>6.8877819999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1530.490000</v>
+        <v>1530.49</v>
       </c>
       <c r="BG13" s="1">
-        <v>-612.277000</v>
+        <v>-612.27700000000004</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>24806.903976</v>
+        <v>24806.903976000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.890807</v>
+        <v>6.8908069999999997</v>
       </c>
       <c r="BK13" s="1">
-        <v>1684.460000</v>
+        <v>1684.46</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1057.440000</v>
+        <v>-1057.44</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>24817.596732</v>
+        <v>24817.596732000002</v>
       </c>
       <c r="BO13" s="1">
         <v>6.893777</v>
       </c>
       <c r="BP13" s="1">
-        <v>1978.010000</v>
+        <v>1978.01</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1828.730000</v>
+        <v>-1828.73</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>24828.162541</v>
+        <v>24828.162541000002</v>
       </c>
       <c r="BT13" s="1">
         <v>6.896712</v>
       </c>
       <c r="BU13" s="1">
-        <v>2366.660000</v>
+        <v>2366.66</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2720.500000</v>
+        <v>-2720.5</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>24838.991198</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.899720</v>
+        <v>6.8997200000000003</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2847.590000</v>
+        <v>2847.59</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3693.050000</v>
+        <v>-3693.05</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>24851.117887</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.903088</v>
+        <v>6.9030880000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>4258.510000</v>
+        <v>4258.51</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6047.200000</v>
+        <v>-6047.2</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>24678.155940</v>
+        <v>24678.155940000001</v>
       </c>
       <c r="B14" s="1">
-        <v>6.855043</v>
+        <v>6.8550430000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1244.680000</v>
+        <v>1244.68</v>
       </c>
       <c r="D14" s="1">
-        <v>-310.201000</v>
+        <v>-310.20100000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>24688.563989</v>
+        <v>24688.563988999998</v>
       </c>
       <c r="G14" s="1">
-        <v>6.857934</v>
+        <v>6.8579340000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1270.140000</v>
+        <v>1270.1400000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-267.040000</v>
+        <v>-267.04000000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>24699.047965</v>
+        <v>24699.047965000002</v>
       </c>
       <c r="L14" s="1">
-        <v>6.860847</v>
+        <v>6.8608469999999997</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.240000</v>
+        <v>1305.24</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.485000</v>
+        <v>-203.48500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>24710.281692</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.863967</v>
+        <v>6.8639669999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.970000</v>
+        <v>1316.97</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.869000</v>
+        <v>-184.869</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>24720.773194</v>
+        <v>24720.773194000001</v>
       </c>
       <c r="V14" s="1">
-        <v>6.866881</v>
+        <v>6.8668810000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1329.940000</v>
+        <v>1329.94</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.070000</v>
+        <v>-171.07</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>24731.207068</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.869780</v>
+        <v>6.8697800000000004</v>
       </c>
       <c r="AB14" s="1">
-        <v>1346.730000</v>
+        <v>1346.73</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.921000</v>
+        <v>-168.92099999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>24741.709327</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.872697</v>
+        <v>6.8726969999999996</v>
       </c>
       <c r="AG14" s="1">
-        <v>1359.650000</v>
+        <v>1359.65</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.375000</v>
+        <v>-178.375</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>24752.192314</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.875609</v>
+        <v>6.8756089999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.110000</v>
+        <v>1380.11</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.295000</v>
+        <v>-208.29499999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>24763.259043</v>
+        <v>24763.259042999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.878683</v>
+        <v>6.8786829999999997</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1401.680000</v>
+        <v>1401.68</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.053000</v>
+        <v>-252.053</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>24774.349555</v>
+        <v>24774.349555000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.881764</v>
+        <v>6.8817640000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.180000</v>
+        <v>1426.18</v>
       </c>
       <c r="AW14" s="1">
-        <v>-311.997000</v>
+        <v>-311.99700000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>24785.336437</v>
+        <v>24785.336437000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.884816</v>
+        <v>6.8848159999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1445.430000</v>
+        <v>1445.43</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.061000</v>
+        <v>-364.06099999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>24796.377409</v>
+        <v>24796.377409000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.887883</v>
+        <v>6.8878830000000004</v>
       </c>
       <c r="BF14" s="1">
-        <v>1530.440000</v>
+        <v>1530.44</v>
       </c>
       <c r="BG14" s="1">
-        <v>-612.275000</v>
+        <v>-612.27499999999998</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>24807.310200</v>
+        <v>24807.3102</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.890920</v>
+        <v>6.8909200000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1684.400000</v>
+        <v>1684.4</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1057.370000</v>
+        <v>-1057.3699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>24818.021802</v>
+        <v>24818.021801999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.893895</v>
+        <v>6.8938949999999997</v>
       </c>
       <c r="BP14" s="1">
-        <v>1977.990000</v>
+        <v>1977.99</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1828.680000</v>
+        <v>-1828.68</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>24828.595549</v>
+        <v>24828.595549000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.896832</v>
+        <v>6.8968319999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2366.950000</v>
+        <v>2366.9499999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2720.740000</v>
+        <v>-2720.74</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>24839.444547</v>
+        <v>24839.444546999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.899846</v>
+        <v>6.8998460000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2847.390000</v>
+        <v>2847.39</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3692.130000</v>
+        <v>-3692.13</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>24851.646631</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.903235</v>
+        <v>6.9032349999999996</v>
       </c>
       <c r="CE14" s="1">
-        <v>4274.740000</v>
+        <v>4274.74</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6042.190000</v>
+        <v>-6042.19</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>24678.497186</v>
+        <v>24678.497186000001</v>
       </c>
       <c r="B15" s="1">
-        <v>6.855138</v>
+        <v>6.8551380000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1244.650000</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-310.472000</v>
+        <v>-310.47199999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>24689.257892</v>
+        <v>24689.257892000001</v>
       </c>
       <c r="G15" s="1">
-        <v>6.858127</v>
+        <v>6.8581269999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>1271.070000</v>
+        <v>1271.07</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.297000</v>
+        <v>-266.29700000000003</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>24699.740870</v>
+        <v>24699.740870000001</v>
       </c>
       <c r="L15" s="1">
-        <v>6.861039</v>
+        <v>6.8610389999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.470000</v>
+        <v>1305.47</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.305000</v>
+        <v>-203.30500000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>24710.628025</v>
+        <v>24710.628025000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>6.864063</v>
+        <v>6.8640629999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1317.000000</v>
+        <v>1317</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.875000</v>
+        <v>-184.875</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>24721.116949</v>
+        <v>24721.116948999999</v>
       </c>
       <c r="V15" s="1">
-        <v>6.866977</v>
+        <v>6.8669770000000003</v>
       </c>
       <c r="W15" s="1">
-        <v>1329.960000</v>
+        <v>1329.96</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.085000</v>
+        <v>-171.08500000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>24731.555724</v>
+        <v>24731.555724000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.869877</v>
+        <v>6.8698769999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1346.920000</v>
+        <v>1346.92</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.705000</v>
+        <v>-168.70500000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>24742.364073</v>
+        <v>24742.364073000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.872879</v>
+        <v>6.8728790000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1359.650000</v>
+        <v>1359.65</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.414000</v>
+        <v>-178.41399999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>24752.859888</v>
+        <v>24752.859887999999</v>
       </c>
       <c r="AK15" s="1">
         <v>6.875794</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.090000</v>
+        <v>1380.09</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.274000</v>
+        <v>-208.274</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>24763.679155</v>
+        <v>24763.679155000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.878800</v>
+        <v>6.8788</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1401.700000</v>
+        <v>1401.7</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.078000</v>
+        <v>-252.078</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>24774.716100</v>
+        <v>24774.716100000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.881866</v>
+        <v>6.8818659999999996</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.170000</v>
+        <v>1426.17</v>
       </c>
       <c r="AW15" s="1">
-        <v>-311.960000</v>
+        <v>-311.95999999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>24785.725837</v>
+        <v>24785.725837000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.884924</v>
+        <v>6.8849239999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1445.440000</v>
+        <v>1445.44</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.076000</v>
+        <v>-364.07600000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>24796.739494</v>
+        <v>24796.739494000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.887983</v>
+        <v>6.8879830000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG15" s="1">
-        <v>-612.279000</v>
+        <v>-612.279</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>24807.669800</v>
+        <v>24807.6698</v>
       </c>
       <c r="BJ15" s="1">
         <v>6.891019</v>
       </c>
       <c r="BK15" s="1">
-        <v>1684.390000</v>
+        <v>1684.39</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1057.380000</v>
+        <v>-1057.3800000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>24818.434474</v>
+        <v>24818.434474000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.894010</v>
+        <v>6.8940099999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1978.080000</v>
+        <v>1978.08</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1828.690000</v>
+        <v>-1828.69</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>24829.024092</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.896951</v>
+        <v>6.8969509999999996</v>
       </c>
       <c r="BU15" s="1">
-        <v>2366.720000</v>
+        <v>2366.7199999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2720.790000</v>
+        <v>-2720.79</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>24839.893389</v>
+        <v>24839.893389000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.899970</v>
+        <v>6.8999699999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2846.710000</v>
+        <v>2846.71</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3691.670000</v>
+        <v>-3691.67</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>24852.164910</v>
+        <v>24852.16491</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.903379</v>
+        <v>6.9033790000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>4260.330000</v>
+        <v>4260.33</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6029.650000</v>
+        <v>-6029.65</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>24679.180210</v>
+        <v>24679.180209999999</v>
       </c>
       <c r="B16" s="1">
-        <v>6.855328</v>
+        <v>6.8553280000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1244.260000</v>
+        <v>1244.26</v>
       </c>
       <c r="D16" s="1">
-        <v>-310.305000</v>
+        <v>-310.30500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>24689.602117</v>
+        <v>24689.602116999999</v>
       </c>
       <c r="G16" s="1">
-        <v>6.858223</v>
+        <v>6.8582229999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>1270.180000</v>
+        <v>1270.18</v>
       </c>
       <c r="I16" s="1">
-        <v>-267.165000</v>
+        <v>-267.16500000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>24700.085559</v>
+        <v>24700.085558999999</v>
       </c>
       <c r="L16" s="1">
         <v>6.861135</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.190000</v>
+        <v>1305.19</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.078000</v>
+        <v>-203.078</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>24710.977209</v>
+        <v>24710.977209000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.864160</v>
+        <v>6.86416</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.853000</v>
+        <v>-184.85300000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>24721.772175</v>
+        <v>24721.772174999998</v>
       </c>
       <c r="V16" s="1">
         <v>6.867159</v>
       </c>
       <c r="W16" s="1">
-        <v>1329.900000</v>
+        <v>1329.9</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.052000</v>
+        <v>-171.05199999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>24732.208955</v>
+        <v>24732.208954999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.870058</v>
+        <v>6.8700580000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1346.960000</v>
+        <v>1346.96</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.710000</v>
+        <v>-168.71</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>24742.737565</v>
+        <v>24742.737564999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.872983</v>
+        <v>6.8729829999999996</v>
       </c>
       <c r="AG16" s="1">
-        <v>1359.650000</v>
+        <v>1359.65</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.460000</v>
+        <v>-178.46</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>24753.236888</v>
+        <v>24753.236887999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.875899</v>
+        <v>6.8758990000000004</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.090000</v>
+        <v>1380.09</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.310000</v>
+        <v>-208.31</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>24764.063025</v>
+        <v>24764.063024999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.878906</v>
+        <v>6.8789059999999997</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1401.690000</v>
+        <v>1401.69</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.071000</v>
+        <v>-252.071</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>24775.080194</v>
+        <v>24775.080193999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.881967</v>
+        <v>6.8819670000000004</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW16" s="1">
-        <v>-311.994000</v>
+        <v>-311.99400000000003</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>24786.082916</v>
+        <v>24786.082915999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.885023</v>
+        <v>6.8850230000000003</v>
       </c>
       <c r="BA16" s="1">
-        <v>1445.400000</v>
+        <v>1445.4</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.088000</v>
+        <v>-364.08800000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>24797.162053</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.888101</v>
+        <v>6.8881009999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG16" s="1">
-        <v>-612.297000</v>
+        <v>-612.29700000000003</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>24808.105325</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.891140</v>
+        <v>6.89114</v>
       </c>
       <c r="BK16" s="1">
-        <v>1684.450000</v>
+        <v>1684.45</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1057.370000</v>
+        <v>-1057.3699999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>24818.842217</v>
+        <v>24818.842217000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.894123</v>
+        <v>6.8941229999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1978.310000</v>
+        <v>1978.31</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1828.780000</v>
+        <v>-1828.78</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>24829.424829</v>
@@ -4289,769 +4705,769 @@
         <v>6.897062</v>
       </c>
       <c r="BU16" s="1">
-        <v>2366.540000</v>
+        <v>2366.54</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2720.900000</v>
+        <v>-2720.9</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>24840.315980</v>
+        <v>24840.315979999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.900088</v>
+        <v>6.9000880000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2847.090000</v>
+        <v>2847.09</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3691.730000</v>
+        <v>-3691.73</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>24852.705085</v>
+        <v>24852.705085000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.903529</v>
+        <v>6.9035289999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>4264.020000</v>
+        <v>4264.0200000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6051.390000</v>
+        <v>-6051.39</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>24679.521425</v>
+        <v>24679.521424999999</v>
       </c>
       <c r="B17" s="1">
         <v>6.855423</v>
       </c>
       <c r="C17" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-310.190000</v>
+        <v>-310.19</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>24689.944885</v>
+        <v>24689.944885000001</v>
       </c>
       <c r="G17" s="1">
-        <v>6.858318</v>
+        <v>6.8583179999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>1270.540000</v>
+        <v>1270.54</v>
       </c>
       <c r="I17" s="1">
-        <v>-266.408000</v>
+        <v>-266.40800000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>24700.433253</v>
+        <v>24700.433252999999</v>
       </c>
       <c r="L17" s="1">
-        <v>6.861231</v>
+        <v>6.8612310000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.590000</v>
+        <v>1305.5899999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.335000</v>
+        <v>-203.33500000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>24711.640358</v>
+        <v>24711.640358000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.864345</v>
+        <v>6.8643450000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.070000</v>
+        <v>1317.07</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.952000</v>
+        <v>-184.952</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>24722.149098</v>
+        <v>24722.149098000002</v>
       </c>
       <c r="V17" s="1">
-        <v>6.867264</v>
+        <v>6.8672639999999996</v>
       </c>
       <c r="W17" s="1">
-        <v>1329.910000</v>
+        <v>1329.91</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.001000</v>
+        <v>-171.001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>24732.602283</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.870167</v>
+        <v>6.8701670000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.980000</v>
+        <v>1346.98</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.669000</v>
+        <v>-168.66900000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>24743.079805</v>
+        <v>24743.079805000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.873078</v>
+        <v>6.8730779999999996</v>
       </c>
       <c r="AG17" s="1">
-        <v>1359.630000</v>
+        <v>1359.63</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.415000</v>
+        <v>-178.41499999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>24753.585535</v>
+        <v>24753.585534999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.875996</v>
+        <v>6.8759959999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.100000</v>
+        <v>1380.1</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.289000</v>
+        <v>-208.28899999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>24764.422129</v>
+        <v>24764.422128999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.879006</v>
+        <v>6.8790060000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1401.680000</v>
+        <v>1401.68</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.103000</v>
+        <v>-252.10300000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>24775.508210</v>
+        <v>24775.50821</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.882086</v>
+        <v>6.8820860000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.140000</v>
+        <v>1426.14</v>
       </c>
       <c r="AW17" s="1">
-        <v>-311.983000</v>
+        <v>-311.983</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>24786.496580</v>
+        <v>24786.496579999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.885138</v>
+        <v>6.8851380000000004</v>
       </c>
       <c r="BA17" s="1">
-        <v>1445.430000</v>
+        <v>1445.43</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.053000</v>
+        <v>-364.053</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>24797.461177</v>
+        <v>24797.461177000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.888184</v>
+        <v>6.8881839999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG17" s="1">
-        <v>-612.237000</v>
+        <v>-612.23699999999997</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>24808.456455</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.891238</v>
+        <v>6.8912380000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1684.370000</v>
+        <v>1684.37</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1057.350000</v>
+        <v>-1057.3499999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>24819.238706</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.894233</v>
+        <v>6.8942329999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1978.140000</v>
+        <v>1978.14</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1828.750000</v>
+        <v>-1828.75</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>24829.866266</v>
+        <v>24829.866266000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.897185</v>
+        <v>6.8971850000000003</v>
       </c>
       <c r="BU17" s="1">
-        <v>2365.960000</v>
+        <v>2365.96</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2721.110000</v>
+        <v>-2721.11</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>24840.736821</v>
+        <v>24840.736820999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.900205</v>
+        <v>6.9002049999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2846.970000</v>
+        <v>2846.97</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3692.480000</v>
+        <v>-3692.48</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>24853.242219</v>
       </c>
       <c r="CD17" s="1">
-        <v>6.903678</v>
+        <v>6.9036780000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>4271.510000</v>
+        <v>4271.51</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6027.540000</v>
+        <v>-6027.54</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>24679.862705</v>
       </c>
       <c r="B18" s="1">
-        <v>6.855517</v>
+        <v>6.8555169999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1244.570000</v>
+        <v>1244.57</v>
       </c>
       <c r="D18" s="1">
-        <v>-310.366000</v>
+        <v>-310.36599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>24690.617955</v>
+        <v>24690.617955000002</v>
       </c>
       <c r="G18" s="1">
-        <v>6.858505</v>
+        <v>6.8585050000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.780000</v>
+        <v>1270.78</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.880000</v>
+        <v>-265.88</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>24701.423764</v>
+        <v>24701.423763999999</v>
       </c>
       <c r="L18" s="1">
-        <v>6.861507</v>
+        <v>6.8615069999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.320000</v>
+        <v>1305.32</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.516000</v>
+        <v>-203.51599999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>24712.022809</v>
+        <v>24712.022808999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.864451</v>
+        <v>6.8644509999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.020000</v>
+        <v>1317.02</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.968000</v>
+        <v>-184.96799999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>24722.490840</v>
+        <v>24722.490839999999</v>
       </c>
       <c r="V18" s="1">
-        <v>6.867359</v>
+        <v>6.8673590000000004</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.040000</v>
+        <v>-171.04</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>24732.950998</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.870264</v>
+        <v>6.8702639999999997</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.200000</v>
+        <v>1347.2</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.580000</v>
+        <v>-168.58</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>24743.427964</v>
+        <v>24743.427963999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.873174</v>
+        <v>6.8731739999999997</v>
       </c>
       <c r="AG18" s="1">
-        <v>1359.640000</v>
+        <v>1359.64</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.419000</v>
+        <v>-178.41900000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>24753.935712</v>
+        <v>24753.935711999999</v>
       </c>
       <c r="AK18" s="1">
         <v>6.876093</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.140000</v>
+        <v>1380.14</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.291000</v>
+        <v>-208.291</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>24764.835298</v>
+        <v>24764.835298000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.879121</v>
+        <v>6.8791209999999996</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1401.690000</v>
+        <v>1401.69</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.040000</v>
+        <v>-252.04</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>24775.809081</v>
+        <v>24775.809080999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.882169</v>
+        <v>6.8821690000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.150000</v>
+        <v>1426.15</v>
       </c>
       <c r="AW18" s="1">
-        <v>-311.966000</v>
+        <v>-311.96600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>24786.788723</v>
+        <v>24786.788723000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.885219</v>
+        <v>6.8852190000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1445.440000</v>
+        <v>1445.44</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.080000</v>
+        <v>-364.08</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>24797.821739</v>
+        <v>24797.821738999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.888284</v>
+        <v>6.8882839999999996</v>
       </c>
       <c r="BF18" s="1">
-        <v>1530.440000</v>
+        <v>1530.44</v>
       </c>
       <c r="BG18" s="1">
-        <v>-612.229000</v>
+        <v>-612.22900000000004</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>24808.829446</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.891342</v>
+        <v>6.8913419999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1684.380000</v>
+        <v>1684.38</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1057.400000</v>
+        <v>-1057.4000000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>24819.659096</v>
+        <v>24819.659095999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.894350</v>
+        <v>6.8943500000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1977.950000</v>
+        <v>1977.95</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1828.730000</v>
+        <v>-1828.73</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>24830.284394</v>
+        <v>24830.284393999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.897301</v>
+        <v>6.8973009999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>2366.280000</v>
+        <v>2366.2800000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2721.320000</v>
+        <v>-2721.32</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>24841.165163</v>
+        <v>24841.165163000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.900324</v>
+        <v>6.9003240000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2847.830000</v>
+        <v>2847.83</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3692.300000</v>
+        <v>-3692.3</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>24853.784843</v>
+        <v>24853.784843000001</v>
       </c>
       <c r="CD18" s="1">
         <v>6.903829</v>
       </c>
       <c r="CE18" s="1">
-        <v>4255.540000</v>
+        <v>4255.54</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6041.230000</v>
+        <v>-6041.23</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>24680.512465</v>
       </c>
       <c r="B19" s="1">
-        <v>6.855698</v>
+        <v>6.8556980000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>1244.190000</v>
+        <v>1244.19</v>
       </c>
       <c r="D19" s="1">
-        <v>-309.928000</v>
+        <v>-309.928</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>24690.978513</v>
+        <v>24690.978512999998</v>
       </c>
       <c r="G19" s="1">
-        <v>6.858605</v>
+        <v>6.8586049999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1270.140000</v>
+        <v>1270.1400000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-266.619000</v>
+        <v>-266.61900000000003</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>24701.812659</v>
+        <v>24701.812658999999</v>
       </c>
       <c r="L19" s="1">
-        <v>6.861615</v>
+        <v>6.8616149999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.180000</v>
+        <v>1305.18</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.136000</v>
+        <v>-203.136</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>24712.372454</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.864548</v>
+        <v>6.8645480000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.940000</v>
+        <v>1316.94</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.953000</v>
+        <v>-184.953</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>24722.837074</v>
+        <v>24722.837073999999</v>
       </c>
       <c r="V19" s="1">
-        <v>6.867455</v>
+        <v>6.8674549999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.060000</v>
+        <v>-171.06</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>24733.299200</v>
+        <v>24733.299200000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.870361</v>
+        <v>6.8703609999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.100000</v>
+        <v>1347.1</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.728000</v>
+        <v>-168.72800000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>24743.844604</v>
+        <v>24743.844604000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.873290</v>
+        <v>6.8732899999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1359.620000</v>
+        <v>1359.62</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.379000</v>
+        <v>-178.37899999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>24754.350899</v>
+        <v>24754.350899000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.876209</v>
+        <v>6.8762090000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.110000</v>
+        <v>1380.11</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.278000</v>
+        <v>-208.27799999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>24765.140367</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.879206</v>
+        <v>6.8792059999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1401.710000</v>
+        <v>1401.71</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.078000</v>
+        <v>-252.078</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>24776.173841</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.882271</v>
+        <v>6.8822710000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.160000</v>
+        <v>1426.16</v>
       </c>
       <c r="AW19" s="1">
-        <v>-311.976000</v>
+        <v>-311.976</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>24787.158256</v>
+        <v>24787.158255999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.885322</v>
+        <v>6.8853220000000004</v>
       </c>
       <c r="BA19" s="1">
-        <v>1445.450000</v>
+        <v>1445.45</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.041000</v>
+        <v>-364.041</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>24798.186788</v>
+        <v>24798.186787999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.888385</v>
+        <v>6.8883850000000004</v>
       </c>
       <c r="BF19" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG19" s="1">
-        <v>-612.268000</v>
+        <v>-612.26800000000003</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>24809.715798</v>
+        <v>24809.715798000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.891588</v>
+        <v>6.8915879999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1684.390000</v>
+        <v>1684.39</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1057.370000</v>
+        <v>-1057.3699999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>24820.076727</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.894466</v>
+        <v>6.8944660000000004</v>
       </c>
       <c r="BP19" s="1">
-        <v>1977.930000</v>
+        <v>1977.93</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1828.570000</v>
+        <v>-1828.57</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>24830.706522</v>
@@ -5060,1223 +5476,1223 @@
         <v>6.897418</v>
       </c>
       <c r="BU19" s="1">
-        <v>2366.090000</v>
+        <v>2366.09</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2721.600000</v>
+        <v>-2721.6</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>24841.580316</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.900439</v>
+        <v>6.9004390000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2846.360000</v>
+        <v>2846.36</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3692.150000</v>
+        <v>-3692.15</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>24854.327467</v>
+        <v>24854.327466999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.903980</v>
+        <v>6.9039799999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>4273.890000</v>
+        <v>4273.8900000000003</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6043.070000</v>
+        <v>-6043.07</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>24680.887903</v>
+        <v>24680.887902999999</v>
       </c>
       <c r="B20" s="1">
-        <v>6.855802</v>
+        <v>6.8558019999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>1244.420000</v>
+        <v>1244.42</v>
       </c>
       <c r="D20" s="1">
-        <v>-309.942000</v>
+        <v>-309.94200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>24691.321778</v>
+        <v>24691.321778000001</v>
       </c>
       <c r="G20" s="1">
-        <v>6.858700</v>
+        <v>6.8586999999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1270.090000</v>
+        <v>1270.0899999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.694000</v>
+        <v>-266.69400000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>24702.160323</v>
       </c>
       <c r="L20" s="1">
-        <v>6.861711</v>
+        <v>6.8617109999999997</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.350000</v>
+        <v>1305.3499999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.550000</v>
+        <v>-203.55</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>24712.723135</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.864645</v>
+        <v>6.8646450000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.000000</v>
+        <v>1317</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.859000</v>
+        <v>-184.85900000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>24723.251735</v>
+        <v>24723.251735000002</v>
       </c>
       <c r="V20" s="1">
-        <v>6.867570</v>
+        <v>6.8675699999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>1329.890000</v>
+        <v>1329.89</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.066000</v>
+        <v>-171.066</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>24733.730186</v>
+        <v>24733.730186000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.870481</v>
+        <v>6.8704809999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.920000</v>
+        <v>1346.92</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.735000</v>
+        <v>-168.73500000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>24744.133771</v>
+        <v>24744.133771000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.873370</v>
+        <v>6.8733700000000004</v>
       </c>
       <c r="AG20" s="1">
-        <v>1359.620000</v>
+        <v>1359.62</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.449000</v>
+        <v>-178.44900000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>24754.644494</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.876290</v>
+        <v>6.87629</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.110000</v>
+        <v>1380.11</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.295000</v>
+        <v>-208.29499999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>24765.503407</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.879307</v>
+        <v>6.8793069999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1401.690000</v>
+        <v>1401.69</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.044000</v>
+        <v>-252.04400000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>24776.537932</v>
+        <v>24776.537931999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.882372</v>
+        <v>6.8823720000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.160000</v>
+        <v>1426.16</v>
       </c>
       <c r="AW20" s="1">
-        <v>-311.944000</v>
+        <v>-311.94400000000002</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>24787.512882</v>
+        <v>24787.512881999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.885420</v>
+        <v>6.8854199999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1445.470000</v>
+        <v>1445.47</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.048000</v>
+        <v>-364.048</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>24798.905492</v>
+        <v>24798.905492000002</v>
       </c>
       <c r="BE20" s="1">
         <v>6.888585</v>
       </c>
       <c r="BF20" s="1">
-        <v>1530.440000</v>
+        <v>1530.44</v>
       </c>
       <c r="BG20" s="1">
-        <v>-612.314000</v>
+        <v>-612.31399999999996</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>24809.972242</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.891659</v>
+        <v>6.8916589999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1684.380000</v>
+        <v>1684.38</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1057.370000</v>
+        <v>-1057.3699999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>24820.480471</v>
+        <v>24820.480470999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.894578</v>
+        <v>6.8945780000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1977.980000</v>
+        <v>1977.98</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1828.580000</v>
+        <v>-1828.58</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>24831.139993</v>
+        <v>24831.139993000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.897539</v>
+        <v>6.8975390000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2365.780000</v>
+        <v>2365.7800000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2721.390000</v>
+        <v>-2721.39</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>24842.035610</v>
+        <v>24842.035609999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.900565</v>
+        <v>6.9005650000000003</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2847.690000</v>
+        <v>2847.69</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3692.350000</v>
+        <v>-3692.35</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>24855.175161</v>
+        <v>24855.175160999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.904215</v>
+        <v>6.9042149999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>4255.730000</v>
+        <v>4255.7299999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6044.140000</v>
+        <v>-6044.14</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>24681.232128</v>
       </c>
       <c r="B21" s="1">
-        <v>6.855898</v>
+        <v>6.8558979999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1244.650000</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-309.653000</v>
+        <v>-309.65300000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>24691.671425</v>
       </c>
       <c r="G21" s="1">
-        <v>6.858798</v>
+        <v>6.8587980000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1270.020000</v>
+        <v>1270.02</v>
       </c>
       <c r="I21" s="1">
-        <v>-266.423000</v>
+        <v>-266.423</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>24702.578451</v>
+        <v>24702.578451000001</v>
       </c>
       <c r="L21" s="1">
-        <v>6.861827</v>
+        <v>6.8618269999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.450000</v>
+        <v>1305.45</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.175000</v>
+        <v>-203.17500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>24713.140789</v>
+        <v>24713.140789000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.864761</v>
+        <v>6.8647609999999997</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.980000</v>
+        <v>1316.98</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.843000</v>
+        <v>-184.84299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>24723.545831</v>
+        <v>24723.545830999999</v>
       </c>
       <c r="V21" s="1">
-        <v>6.867652</v>
+        <v>6.8676519999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>1329.850000</v>
+        <v>1329.85</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.108000</v>
+        <v>-171.108</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>24734.007476</v>
+        <v>24734.007475999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.870558</v>
+        <v>6.8705579999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.100000</v>
+        <v>1347.1</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.451000</v>
+        <v>-168.45099999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>24744.476044</v>
+        <v>24744.476043999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.873466</v>
+        <v>6.8734659999999996</v>
       </c>
       <c r="AG21" s="1">
-        <v>1359.580000</v>
+        <v>1359.58</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.366000</v>
+        <v>-178.36600000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>24754.991725</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.876387</v>
+        <v>6.8763870000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.140000</v>
+        <v>1380.14</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.312000</v>
+        <v>-208.31200000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>24765.862015</v>
+        <v>24765.862014999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.879406</v>
+        <v>6.8794060000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1401.700000</v>
+        <v>1401.7</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.059000</v>
+        <v>-252.059</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>24777.267520</v>
+        <v>24777.267520000001</v>
       </c>
       <c r="AU21" s="1">
         <v>6.882574</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.160000</v>
+        <v>1426.16</v>
       </c>
       <c r="AW21" s="1">
-        <v>-311.965000</v>
+        <v>-311.96499999999997</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>24788.242038</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.885623</v>
+        <v>6.8856229999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1445.390000</v>
+        <v>1445.39</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.059000</v>
+        <v>-364.05900000000003</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>24799.265091</v>
+        <v>24799.265091000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.888685</v>
+        <v>6.8886849999999997</v>
       </c>
       <c r="BF21" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG21" s="1">
-        <v>-612.257000</v>
+        <v>-612.25699999999995</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>24810.345222</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.891763</v>
+        <v>6.8917630000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1684.400000</v>
+        <v>1684.4</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1057.320000</v>
+        <v>-1057.32</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>24820.876290</v>
+        <v>24820.87629</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.894688</v>
+        <v>6.8946880000000004</v>
       </c>
       <c r="BP21" s="1">
-        <v>1977.970000</v>
+        <v>1977.97</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1828.670000</v>
+        <v>-1828.67</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>24831.880519</v>
+        <v>24831.880518999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.897745</v>
+        <v>6.8977449999999996</v>
       </c>
       <c r="BU21" s="1">
-        <v>2365.420000</v>
+        <v>2365.42</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2721.170000</v>
+        <v>-2721.17</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>24842.803424</v>
+        <v>24842.803424000002</v>
       </c>
       <c r="BY21" s="1">
         <v>6.900779</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2847.000000</v>
+        <v>2847</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3692.180000</v>
+        <v>-3692.18</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>24855.404777</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.904279</v>
+        <v>6.9042789999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>4257.010000</v>
+        <v>4257.01</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6042.350000</v>
+        <v>-6042.35</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>24681.570437</v>
+        <v>24681.570436999998</v>
       </c>
       <c r="B22" s="1">
-        <v>6.855992</v>
+        <v>6.8559919999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>1244.730000</v>
+        <v>1244.73</v>
       </c>
       <c r="D22" s="1">
-        <v>-309.577000</v>
+        <v>-309.577</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>24692.088064</v>
       </c>
       <c r="G22" s="1">
-        <v>6.858913</v>
+        <v>6.8589130000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.870000</v>
+        <v>1269.8699999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-266.576000</v>
+        <v>-266.57600000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>24702.866627</v>
+        <v>24702.866626999999</v>
       </c>
       <c r="L22" s="1">
-        <v>6.861907</v>
+        <v>6.8619070000000004</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.290000</v>
+        <v>1305.29</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.498000</v>
+        <v>-203.49799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>24713.431460</v>
+        <v>24713.43146</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.864842</v>
+        <v>6.8648420000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.030000</v>
+        <v>1317.03</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.822000</v>
+        <v>-184.822</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>24723.883110</v>
+        <v>24723.883109999999</v>
       </c>
       <c r="V22" s="1">
-        <v>6.867745</v>
+        <v>6.8677450000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.910000</v>
+        <v>1329.91</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.070000</v>
+        <v>-171.07</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>24734.347705</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.870652</v>
+        <v>6.8706519999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.950000</v>
+        <v>1346.95</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.938000</v>
+        <v>-168.93799999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>24744.823210</v>
+        <v>24744.823209999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.873562</v>
+        <v>6.8735619999999997</v>
       </c>
       <c r="AG22" s="1">
-        <v>1359.620000</v>
+        <v>1359.62</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.448000</v>
+        <v>-178.44800000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>24755.690060</v>
+        <v>24755.690060000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.876581</v>
+        <v>6.8765809999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.140000</v>
+        <v>1380.14</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.304000</v>
+        <v>-208.304</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>24766.580750</v>
+        <v>24766.580750000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.879606</v>
+        <v>6.8796059999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1401.680000</v>
+        <v>1401.68</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.072000</v>
+        <v>-252.072</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>24777.660884</v>
+        <v>24777.660884000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.882684</v>
+        <v>6.8826840000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.150000</v>
+        <v>1426.15</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.038000</v>
+        <v>-312.03800000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>24788.616977</v>
+        <v>24788.616977000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.885727</v>
+        <v>6.8857270000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1445.410000</v>
+        <v>1445.41</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.025000</v>
+        <v>-364.02499999999998</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>24799.627172</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.888785</v>
+        <v>6.8887850000000004</v>
       </c>
       <c r="BF22" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG22" s="1">
-        <v>-612.259000</v>
+        <v>-612.25900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>24811.025237</v>
+        <v>24811.025237000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.891951</v>
+        <v>6.8919509999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1684.380000</v>
+        <v>1684.38</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1057.300000</v>
+        <v>-1057.3</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>24821.609894</v>
+        <v>24821.609894000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.894892</v>
+        <v>6.8948919999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1978.120000</v>
+        <v>1978.12</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1828.460000</v>
+        <v>-1828.46</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>24832.014471</v>
+        <v>24832.014470999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.897782</v>
+        <v>6.8977820000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>2365.330000</v>
+        <v>2365.33</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2721.640000</v>
+        <v>-2721.64</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>24842.915550</v>
+        <v>24842.915550000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.900810</v>
+        <v>6.9008099999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2847.020000</v>
+        <v>2847.02</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3691.760000</v>
+        <v>-3691.76</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>24855.924584</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.904423</v>
+        <v>6.9044230000000004</v>
       </c>
       <c r="CE22" s="1">
-        <v>4271.000000</v>
+        <v>4271</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6044.140000</v>
+        <v>-6044.14</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>24681.983102</v>
+        <v>24681.983101999998</v>
       </c>
       <c r="B23" s="1">
-        <v>6.856106</v>
+        <v>6.8561059999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>1245.130000</v>
+        <v>1245.1300000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-309.290000</v>
+        <v>-309.29000000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>24692.357888</v>
+        <v>24692.357887999999</v>
       </c>
       <c r="G23" s="1">
-        <v>6.858988</v>
+        <v>6.8589880000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.750000</v>
+        <v>1269.75</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.945000</v>
+        <v>-265.94499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>24703.209362</v>
+        <v>24703.209362000001</v>
       </c>
       <c r="L23" s="1">
-        <v>6.862003</v>
+        <v>6.8620029999999996</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.860000</v>
+        <v>1304.8599999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.488000</v>
+        <v>-203.488</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>24713.779627</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.864939</v>
+        <v>6.8649389999999997</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.931000</v>
+        <v>-184.93100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>24724.232294</v>
+        <v>24724.232294000001</v>
       </c>
       <c r="V23" s="1">
-        <v>6.867842</v>
+        <v>6.8678419999999996</v>
       </c>
       <c r="W23" s="1">
-        <v>1329.810000</v>
+        <v>1329.81</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.018000</v>
+        <v>-171.018</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>24734.709821</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.870753</v>
+        <v>6.8707529999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.920000</v>
+        <v>1346.92</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.762000</v>
+        <v>-168.762</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>24745.509674</v>
+        <v>24745.509674000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.873753</v>
+        <v>6.8737529999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>1359.540000</v>
+        <v>1359.54</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.376000</v>
+        <v>-178.376</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>24756.027529</v>
+        <v>24756.027528999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.876674</v>
+        <v>6.8766740000000004</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.100000</v>
+        <v>1380.1</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.288000</v>
+        <v>-208.28800000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>24766.943293</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.879706</v>
+        <v>6.8797059999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1401.680000</v>
+        <v>1401.68</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.080000</v>
+        <v>-252.08</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>24778.022430</v>
+        <v>24778.022430000001</v>
       </c>
       <c r="AU23" s="1">
         <v>6.882784</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.130000</v>
+        <v>1426.13</v>
       </c>
       <c r="AW23" s="1">
-        <v>-311.981000</v>
+        <v>-311.98099999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>24789.004353</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.885835</v>
+        <v>6.8858350000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1445.410000</v>
+        <v>1445.41</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.040000</v>
+        <v>-364.04</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>24800.316609</v>
+        <v>24800.316609000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.888977</v>
+        <v>6.8889769999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG23" s="1">
-        <v>-612.256000</v>
+        <v>-612.25599999999997</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>24811.473619</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.892076</v>
+        <v>6.8920760000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1684.350000</v>
+        <v>1684.35</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1057.300000</v>
+        <v>-1057.3</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>24821.721461</v>
+        <v>24821.721461000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.894923</v>
+        <v>6.8949230000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1977.990000</v>
+        <v>1977.99</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1828.510000</v>
+        <v>-1828.51</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>24832.426615</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.897896</v>
+        <v>6.8978960000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>2365.070000</v>
+        <v>2365.0700000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2721.720000</v>
+        <v>-2721.72</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>24843.344057</v>
+        <v>24843.344056999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.900929</v>
+        <v>6.9009289999999996</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2846.850000</v>
+        <v>2846.85</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3692.150000</v>
+        <v>-3692.15</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>24856.441911</v>
+        <v>24856.441911000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.904567</v>
+        <v>6.9045670000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4270.620000</v>
+        <v>4270.62</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6029.330000</v>
+        <v>-6029.33</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>24682.272270</v>
+        <v>24682.272270000001</v>
       </c>
       <c r="B24" s="1">
-        <v>6.856187</v>
+        <v>6.8561870000000003</v>
       </c>
       <c r="C24" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="D24" s="1">
-        <v>-309.474000</v>
+        <v>-309.47399999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>24692.704095</v>
+        <v>24692.704095000001</v>
       </c>
       <c r="G24" s="1">
-        <v>6.859084</v>
+        <v>6.8590840000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.360000</v>
+        <v>1270.3599999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-266.631000</v>
+        <v>-266.63099999999997</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>24703.556561</v>
+        <v>24703.556561000001</v>
       </c>
       <c r="L24" s="1">
-        <v>6.862099</v>
+        <v>6.8620989999999997</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.480000</v>
+        <v>1305.48</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.139000</v>
+        <v>-203.13900000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>24714.127330</v>
+        <v>24714.127329999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.865035</v>
+        <v>6.8650349999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.990000</v>
+        <v>1316.99</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.924000</v>
+        <v>-184.92400000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>24724.914821</v>
+        <v>24724.914820999998</v>
       </c>
       <c r="V24" s="1">
-        <v>6.868032</v>
+        <v>6.8680320000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>1329.890000</v>
+        <v>1329.89</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.186000</v>
+        <v>-171.18600000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>24735.403687</v>
+        <v>24735.403687000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.870945</v>
+        <v>6.8709449999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.920000</v>
+        <v>1346.92</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.732000</v>
+        <v>-168.732</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>24745.852937</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.873848</v>
+        <v>6.8738479999999997</v>
       </c>
       <c r="AG24" s="1">
-        <v>1359.610000</v>
+        <v>1359.61</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.419000</v>
+        <v>-178.41900000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>24756.384459</v>
+        <v>24756.384459000001</v>
       </c>
       <c r="AK24" s="1">
         <v>6.876773</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.110000</v>
+        <v>1380.11</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.272000</v>
+        <v>-208.27199999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>24767.301405</v>
+        <v>24767.301404999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.879806</v>
+        <v>6.8798060000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1401.710000</v>
+        <v>1401.71</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.057000</v>
+        <v>-252.05699999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>24778.695999</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.882971</v>
+        <v>6.8829710000000004</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.180000</v>
+        <v>1426.18</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.002000</v>
+        <v>-312.00200000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>24789.663535</v>
@@ -6285,619 +6701,620 @@
         <v>6.886018</v>
       </c>
       <c r="BA24" s="1">
-        <v>1445.420000</v>
+        <v>1445.42</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.058000</v>
+        <v>-364.05799999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>24800.738209</v>
+        <v>24800.738208999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.889094</v>
+        <v>6.8890940000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.204000</v>
+        <v>-612.20399999999995</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>24811.844163</v>
+        <v>24811.844163000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.892179</v>
+        <v>6.8921789999999996</v>
       </c>
       <c r="BK24" s="1">
-        <v>1684.350000</v>
+        <v>1684.35</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1057.300000</v>
+        <v>-1057.3</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>24822.117764</v>
+        <v>24822.117763999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.895033</v>
+        <v>6.8950329999999997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1977.930000</v>
+        <v>1977.93</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1828.480000</v>
+        <v>-1828.48</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>24832.853187</v>
+        <v>24832.853187000001</v>
       </c>
       <c r="BT24" s="1">
         <v>6.898015</v>
       </c>
       <c r="BU24" s="1">
-        <v>2364.690000</v>
+        <v>2364.69</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2721.710000</v>
+        <v>-2721.71</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>24843.756234</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.901043</v>
+        <v>6.9010429999999996</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2846.550000</v>
+        <v>2846.55</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3692.150000</v>
+        <v>-3692.15</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>24856.958279</v>
+        <v>24856.958278999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.904711</v>
+        <v>6.9047109999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>4253.980000</v>
+        <v>4253.9799999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6030.050000</v>
+        <v>-6030.05</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>24682.613517</v>
+        <v>24682.613517000002</v>
       </c>
       <c r="B25" s="1">
-        <v>6.856282</v>
+        <v>6.8562820000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1245.080000</v>
+        <v>1245.08</v>
       </c>
       <c r="D25" s="1">
-        <v>-309.108000</v>
+        <v>-309.108</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>24693.050799</v>
+        <v>24693.050799000001</v>
       </c>
       <c r="G25" s="1">
-        <v>6.859181</v>
+        <v>6.8591810000000004</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.770000</v>
+        <v>1269.77</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.476000</v>
+        <v>-266.476</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>24704.247488</v>
+        <v>24704.247488000001</v>
       </c>
       <c r="L25" s="1">
-        <v>6.862291</v>
+        <v>6.8622909999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.970000</v>
+        <v>1304.97</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.271000</v>
+        <v>-203.27099999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>24714.825171</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.865229</v>
+        <v>6.8652290000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.980000</v>
+        <v>1316.98</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.878000</v>
+        <v>-184.87799999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>24725.263747</v>
+        <v>24725.263747000001</v>
       </c>
       <c r="V25" s="1">
-        <v>6.868129</v>
+        <v>6.8681289999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>1329.940000</v>
+        <v>1329.94</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.001000</v>
+        <v>-171.001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>24735.752909</v>
+        <v>24735.752908999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.871042</v>
+        <v>6.8710420000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1346.930000</v>
+        <v>1346.93</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.764000</v>
+        <v>-168.76400000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>24746.197160</v>
+        <v>24746.19716</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.873944</v>
+        <v>6.8739439999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1359.590000</v>
+        <v>1359.59</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.414000</v>
+        <v>-178.41399999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>24757.044228</v>
+        <v>24757.044227999999</v>
       </c>
       <c r="AK25" s="1">
         <v>6.876957</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.100000</v>
+        <v>1380.1</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.311000</v>
+        <v>-208.31100000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>24767.968060</v>
+        <v>24767.968059999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.879991</v>
+        <v>6.8799910000000004</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1401.700000</v>
+        <v>1401.7</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.091000</v>
+        <v>-252.09100000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>24779.148349</v>
+        <v>24779.148348999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.883097</v>
+        <v>6.8830970000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.140000</v>
+        <v>1426.14</v>
       </c>
       <c r="AW25" s="1">
-        <v>-311.971000</v>
+        <v>-311.971</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>24790.081690</v>
+        <v>24790.081689999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.886134</v>
+        <v>6.8861340000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1445.430000</v>
+        <v>1445.43</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.060000</v>
+        <v>-364.06</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>24801.098304</v>
+        <v>24801.098303999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.889194</v>
+        <v>6.8891939999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1530.390000</v>
+        <v>1530.39</v>
       </c>
       <c r="BG25" s="1">
-        <v>-612.245000</v>
+        <v>-612.245</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>24812.222082</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.892284</v>
+        <v>6.8922840000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1684.350000</v>
+        <v>1684.35</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1057.260000</v>
+        <v>-1057.26</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>24822.542377</v>
+        <v>24822.542377000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.895151</v>
+        <v>6.8951510000000003</v>
       </c>
       <c r="BP25" s="1">
-        <v>1977.980000</v>
+        <v>1977.98</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1828.490000</v>
+        <v>-1828.49</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>24833.267861</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.898130</v>
+        <v>6.8981300000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2364.470000</v>
+        <v>2364.4699999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2721.460000</v>
+        <v>-2721.46</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>24844.212056</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.901170</v>
+        <v>6.9011699999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2846.950000</v>
+        <v>2846.95</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3692.260000</v>
+        <v>-3692.26</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>24857.477558</v>
+        <v>24857.477557999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.904855</v>
+        <v>6.9048550000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>4262.560000</v>
+        <v>4262.5600000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6026.150000</v>
+        <v>-6026.15</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>24683.287548</v>
       </c>
       <c r="B26" s="1">
-        <v>6.856469</v>
+        <v>6.8564689999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.900000</v>
+        <v>1244.9000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-309.361000</v>
+        <v>-309.36099999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>24693.739247</v>
+        <v>24693.739247000001</v>
       </c>
       <c r="G26" s="1">
-        <v>6.859372</v>
+        <v>6.8593719999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>1271.050000</v>
+        <v>1271.05</v>
       </c>
       <c r="I26" s="1">
-        <v>-267.358000</v>
+        <v>-267.358</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>24704.594687</v>
+        <v>24704.594687000001</v>
       </c>
       <c r="L26" s="1">
         <v>6.862387</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.270000</v>
+        <v>1305.27</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.522000</v>
+        <v>-203.52199999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>24715.175346</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.865326</v>
+        <v>6.8653259999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.980000</v>
+        <v>1316.98</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.832000</v>
+        <v>-184.83199999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>24725.601748</v>
+        <v>24725.601748000001</v>
       </c>
       <c r="V26" s="1">
-        <v>6.868223</v>
+        <v>6.8682230000000004</v>
       </c>
       <c r="W26" s="1">
-        <v>1329.950000</v>
+        <v>1329.95</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.046000</v>
+        <v>-171.04599999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>24736.101099</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.871139</v>
+        <v>6.8711390000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>1346.820000</v>
+        <v>1346.82</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.802000</v>
+        <v>-168.80199999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>24746.846888</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.874124</v>
+        <v>6.8741240000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1359.660000</v>
+        <v>1359.66</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.381000</v>
+        <v>-178.381</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>24757.431514</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.877064</v>
+        <v>6.8770639999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.120000</v>
+        <v>1380.12</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.334000</v>
+        <v>-208.334</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>24768.412444</v>
+        <v>24768.412444000001</v>
       </c>
       <c r="AP26" s="1">
         <v>6.880115</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1401.710000</v>
+        <v>1401.71</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.066000</v>
+        <v>-252.066</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>24779.514894</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.883199</v>
+        <v>6.8831990000000003</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.170000</v>
+        <v>1426.17</v>
       </c>
       <c r="AW26" s="1">
-        <v>-311.979000</v>
+        <v>-311.97899999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>24790.470067</v>
+        <v>24790.470066999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.886242</v>
+        <v>6.8862420000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1445.430000</v>
+        <v>1445.43</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.045000</v>
+        <v>-364.04500000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>24801.458400</v>
+        <v>24801.4584</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.889294</v>
+        <v>6.8892939999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.267000</v>
+        <v>-612.26700000000005</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>24812.636738</v>
+        <v>24812.636738000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.892399</v>
+        <v>6.8923990000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1684.400000</v>
+        <v>1684.4</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1057.270000</v>
+        <v>-1057.27</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>24822.954020</v>
+        <v>24822.954020000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.895265</v>
+        <v>6.8952650000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1978.020000</v>
+        <v>1978.02</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1828.580000</v>
+        <v>-1828.58</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>24833.684997</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.898246</v>
+        <v>6.8982460000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>2364.480000</v>
+        <v>2364.48</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2721.790000</v>
+        <v>-2721.79</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>24844.660439</v>
+        <v>24844.660438999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.901295</v>
+        <v>6.9012950000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2847.250000</v>
+        <v>2847.25</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3691.290000</v>
+        <v>-3691.29</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>24858.030628</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.905009</v>
+        <v>6.9050089999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>4272.440000</v>
+        <v>4272.4399999999996</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6030.350000</v>
+        <v>-6030.35</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>